--- a/일봉_뉴스_답/구영테크_data_Day.xlsx
+++ b/일봉_뉴스_답/구영테크_data_Day.xlsx
@@ -459,10 +459,10 @@
         <v>-90</v>
       </c>
       <c r="I2">
-        <v>1372973</v>
+        <v>1378051</v>
       </c>
       <c r="J2">
-        <v>6590000000</v>
+        <v>6615000000</v>
       </c>
     </row>
     <row r="3" spans="1:10">
